--- a/davis_work/fenial_ncsu.xlsx
+++ b/davis_work/fenial_ncsu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/davis_work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/davis_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3672D13E-6D56-814F-AA42-8D93F9F31874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB723C97-0C38-5942-A4FC-DF7CA40AD26C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2280" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
+    <workbookView xWindow="14620" yWindow="8160" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="VASP" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
   <si>
     <t>B2-FeNi</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>feni liq</t>
+  </si>
+  <si>
+    <t>feal liq</t>
   </si>
 </sst>
 </file>
@@ -371,16 +374,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.4916932528052218</c:v>
+                  <c:v>2.8047859074339954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40672066505840965</c:v>
+                  <c:v>0.50506811981021427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30067593651794855</c:v>
+                  <c:v>0.23247931260193289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83544129262476918</c:v>
+                  <c:v>0.74145169545410505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,16 +705,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.5871921414747217</c:v>
+                  <c:v>2.5787931949307685</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41226133314265945</c:v>
+                  <c:v>0.41008642996744871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.25395229386762197</c:v>
+                  <c:v>-0.25538477915375446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4419675291140752E-3</c:v>
+                  <c:v>-2.6340300333405064E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3736C-373F-3241-97CC-64F85E1DAEE3}">
   <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2576,39 +2579,39 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>-538.46589536645297</v>
+        <v>-547.185526984332</v>
       </c>
       <c r="K10" s="1">
         <f>(J10-64*K$5-64*K$6)/128</f>
-        <v>7.9429914671808266E-2</v>
+        <v>1.1307792657128335E-2</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
       <c r="M10">
         <f>ABS(K10-G8)/G8</f>
-        <v>4.9053875569849102E-2</v>
+        <v>0.86462151385172692</v>
       </c>
       <c r="N10">
         <f>ABS(K10-G8)</f>
-        <v>4.0973353281916758E-3</v>
+        <v>7.2219457342871607E-2</v>
       </c>
       <c r="P10" t="s">
         <v>25</v>
       </c>
       <c r="Q10">
-        <v>-519.46171928026899</v>
+        <v>-518.96872422085005</v>
       </c>
       <c r="R10" s="1">
         <f>(Q10-64*K$5-64*K$7)/128</f>
-        <v>-0.31709995965487958</v>
+        <v>-0.31324843575316907</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
       </c>
       <c r="U10">
         <f>ABS(R10-G13)</f>
-        <v>2.4822415345119975E-2</v>
+        <v>2.8673939246830482E-2</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
@@ -2634,36 +2637,36 @@
         <v>-3.2428874999999913E-2</v>
       </c>
       <c r="J11">
-        <v>1412.09316761335</v>
+        <v>1445.3137312138799</v>
       </c>
       <c r="K11" s="1">
         <f>(J11^(1/3))/4</f>
-        <v>2.8047519538988608</v>
+        <v>2.8265763327812778</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
       </c>
       <c r="M11">
         <f>ABS(K11-F8)/F8</f>
-        <v>1.6596391378762954E-2</v>
+        <v>8.9443161501311721E-3</v>
       </c>
       <c r="N11">
         <f>ABS(K11-F8)</f>
-        <v>4.7334340385956519E-2</v>
+        <v>2.5509961503539458E-2</v>
       </c>
       <c r="Q11">
-        <v>1527.1552122591099</v>
+        <v>1574.11467196587</v>
       </c>
       <c r="R11" s="1">
         <f>(Q11^(1/3))/4</f>
-        <v>2.8789518510744756</v>
+        <v>2.9081633545125967</v>
       </c>
       <c r="S11" t="s">
         <v>1</v>
       </c>
       <c r="U11">
         <f>ABS(R11-F13)</f>
-        <v>2.4875686276435438E-3</v>
+        <v>3.1699072065764611E-2</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
@@ -2692,39 +2695,39 @@
         <v>21</v>
       </c>
       <c r="J12">
-        <v>-411.22899462727997</v>
+        <v>-453.21481690838698</v>
       </c>
       <c r="K12" s="1">
         <f>(J12-81*K$5-27*K$6)/108</f>
-        <v>0.39661620715481455</v>
+        <v>7.8585934408608258E-3</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
       </c>
       <c r="M12">
         <f>ABS(K12-G9)/G9</f>
-        <v>2.5233438165094402</v>
+        <v>0.93018811105842991</v>
       </c>
       <c r="N12">
         <f>ABS(K12-G9)</f>
-        <v>0.28404808215481375</v>
+        <v>0.10470953155913997</v>
       </c>
       <c r="P12" t="s">
         <v>26</v>
       </c>
       <c r="Q12">
-        <v>-436.71006233691702</v>
+        <v>-437.01047149370697</v>
       </c>
       <c r="R12" s="1">
         <f>(Q12-81*K$5-27*K$7)/108</f>
-        <v>-0.11181960497145443</v>
+        <v>-0.11460117123802807</v>
       </c>
       <c r="S12" t="s">
         <v>7</v>
       </c>
       <c r="U12">
         <f>ABS(R12-G14)</f>
-        <v>9.2574832528545203E-2</v>
+        <v>8.9793266261971566E-2</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
@@ -2750,36 +2753,36 @@
         <v>-0.34192237499999956</v>
       </c>
       <c r="J13">
-        <v>1296.15717177595</v>
+        <v>1104.2480806502899</v>
       </c>
       <c r="K13" s="1">
         <f>(J13^(1/3))/3</f>
-        <v>3.6343880933423303</v>
+        <v>3.4453575325284582</v>
       </c>
       <c r="L13" t="s">
         <v>1</v>
       </c>
       <c r="M13">
         <f>ABS(K13-F9)/F9</f>
-        <v>3.2529825452708071E-2</v>
+        <v>2.1173765619449468E-2</v>
       </c>
       <c r="N13">
         <f>ABS(K13-F9)</f>
-        <v>0.11450130290618077</v>
+        <v>7.4529257907691271E-2</v>
       </c>
       <c r="Q13">
-        <v>1240.17942690063</v>
+        <v>1245.4946754837599</v>
       </c>
       <c r="R13" s="1">
         <f>(Q13^(1/3))/3</f>
-        <v>3.5812962901012022</v>
+        <v>3.5864053223512418</v>
       </c>
       <c r="S13" t="s">
         <v>1</v>
       </c>
       <c r="U13">
         <f>ABS(R13-F14)</f>
-        <v>6.9526067921130696E-2</v>
+        <v>6.4417035671091138E-2</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
@@ -2808,39 +2811,39 @@
         <v>22</v>
       </c>
       <c r="J14">
-        <v>-516.79947387142499</v>
+        <v>-552.19728701056897</v>
       </c>
       <c r="K14" s="1">
         <f>(J14-96*K$5-32*K$6)/128</f>
-        <v>0.16679619371282528</v>
+        <v>-0.10974922143673704</v>
       </c>
       <c r="L14" t="s">
         <v>7</v>
       </c>
       <c r="M14">
         <f>ABS(K14-G10)/G10</f>
-        <v>3.7439527787547382</v>
+        <v>4.1214448747995887</v>
       </c>
       <c r="N14">
         <f>ABS(K14-G10)</f>
-        <v>0.13163644371282457</v>
+        <v>0.14490897143673775</v>
       </c>
       <c r="P14" t="s">
         <v>27</v>
       </c>
       <c r="Q14">
-        <v>-532.10142948956695</v>
+        <v>-532.22231661059004</v>
       </c>
       <c r="R14" s="1">
         <f>(Q14-96*K$5-32*K$7)/128</f>
-        <v>-0.22525033455390886</v>
+        <v>-0.22619476518690174</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
       </c>
       <c r="U14">
         <f>ABS(R14-G15)</f>
-        <v>2.1607647053909274E-2</v>
+        <v>2.255207768690215E-2</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
@@ -2866,36 +2869,36 @@
         <v>-0.20364268749999959</v>
       </c>
       <c r="J15">
-        <v>1500.43537851377</v>
+        <v>1336.2520989156701</v>
       </c>
       <c r="K15" s="1">
         <f>(J15^(1/3))/2</f>
-        <v>5.7241249191826018</v>
+        <v>5.5072248013706373</v>
       </c>
       <c r="L15" t="s">
         <v>1</v>
       </c>
       <c r="M15">
         <f>ABS(K15-F10)/F10</f>
-        <v>1.1836490121101355E-3</v>
+        <v>3.6753477533539906E-2</v>
       </c>
       <c r="N15">
         <f>ABS(K15-F10)</f>
-        <v>6.7673446449818542E-3</v>
+        <v>0.21013277316698264</v>
       </c>
       <c r="Q15">
-        <v>1470.52346074561</v>
+        <v>1466.6170251179201</v>
       </c>
       <c r="R15" s="1">
         <f>(Q15^(1/3))/2</f>
-        <v>5.6858315656709859</v>
+        <v>5.6807923097506885</v>
       </c>
       <c r="S15" t="s">
         <v>1</v>
       </c>
       <c r="U15">
         <f>ABS(R15-F15)</f>
-        <v>4.7998239302230239E-2</v>
+        <v>5.3037495222527653E-2</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
@@ -2924,24 +2927,40 @@
         <v>34</v>
       </c>
       <c r="J16">
-        <v>-449.64059825361801</v>
+        <v>-453.08379694149602</v>
       </c>
       <c r="K16" s="1">
         <f>(J16-81*K$6-27*K$5)/108</f>
-        <v>0.20475848839242555</v>
+        <v>0.17287701906022176</v>
       </c>
       <c r="L16" t="s">
         <v>7</v>
       </c>
       <c r="M16">
         <f>ABS(K16-G11)/G11</f>
-        <v>-7.3140793010064673</v>
+        <v>-6.3309594939763478</v>
       </c>
       <c r="N16">
         <f>ABS(K16-G11)</f>
-        <v>0.23718736339242547</v>
-      </c>
-      <c r="R16" s="1"/>
+        <v>0.20530589406022168</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16">
+        <v>-388.887529631966</v>
+      </c>
+      <c r="R16" s="1">
+        <f>(Q16-27*K$5-81*K$7)/108</f>
+        <v>-5.021309844413014E-2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <f>ABS(R16-G16)</f>
+        <v>8.3920214055869802E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -2966,48 +2985,77 @@
         <v>-3.6073000000000466E-2</v>
       </c>
       <c r="J17">
-        <v>1080.04557600001</v>
+        <v>1097.8284557223601</v>
       </c>
       <c r="K17" s="1">
         <f>(J17^(1/3))/3</f>
-        <v>3.4200000000000106</v>
+        <v>3.4386679417272847</v>
       </c>
       <c r="L17" t="s">
         <v>1</v>
       </c>
       <c r="M17">
         <f>ABS(K17-F11)/F11</f>
-        <v>2.2971068806305828E-2</v>
+        <v>1.7637993030462328E-2</v>
       </c>
       <c r="N17">
         <f>ABS(K17-F11)</f>
-        <v>8.0408115675329572E-2</v>
-      </c>
-      <c r="R17" s="1"/>
+        <v>6.1740173948055421E-2</v>
+      </c>
+      <c r="Q17">
+        <v>1601.6130000000001</v>
+      </c>
+      <c r="R17" s="1">
+        <f>(Q17^(1/3))/3</f>
+        <v>3.9</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f>ABS(R17-F16)</f>
+        <v>0.10420594624682744</v>
+      </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
         <v>33</v>
       </c>
       <c r="J18">
-        <v>-547.19788455029902</v>
+        <v>-552.01525109592501</v>
       </c>
       <c r="K18" s="1">
         <f>(J18-96*K$6-32*K$5)/128</f>
-        <v>9.3113888061900241E-2</v>
+        <v>5.5478211924197218E-2</v>
       </c>
       <c r="L18" t="s">
         <v>7</v>
       </c>
       <c r="M18">
         <f>ABS(K18-G12)/G12</f>
-        <v>2.3244793645478836</v>
+        <v>0.98075898840566655</v>
       </c>
       <c r="N18">
         <f>ABS(K18-G12)</f>
-        <v>6.5105325561900074E-2</v>
-      </c>
-      <c r="R18" s="1"/>
+        <v>2.7469649424197051E-2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18">
+        <v>-466.68490865285497</v>
+      </c>
+      <c r="R18" s="1">
+        <f>(Q18-32*K$5-96*K$7)/128</f>
+        <v>-9.5378487739318452E-2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <f>ABS(R18-G17)</f>
+        <v>5.9305487739317986E-2</v>
+      </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
@@ -3017,24 +3065,37 @@
         <v>7</v>
       </c>
       <c r="J19">
-        <v>1310.3961459869399</v>
+        <v>1338.14900279883</v>
       </c>
       <c r="K19" s="1">
         <f>(J19^(1/3))/2</f>
-        <v>5.4714723228317821</v>
+        <v>5.5098295336040479</v>
       </c>
       <c r="L19" t="s">
         <v>1</v>
       </c>
       <c r="M19">
         <f>ABS(K19-F12)/F12</f>
-        <v>2.9508941855829529E-2</v>
+        <v>2.270541112891741E-2</v>
       </c>
       <c r="N19">
         <f>ABS(K19-F12)</f>
-        <v>0.16636666282013124</v>
-      </c>
-      <c r="R19" s="1"/>
+        <v>0.1280094520478654</v>
+      </c>
+      <c r="Q19">
+        <v>1833.5532921475201</v>
+      </c>
+      <c r="R19" s="1">
+        <f>(Q19^(1/3))/2</f>
+        <v>6.1197617767784998</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f>ABS(R19-F17)</f>
+        <v>0.14122736936400138</v>
+      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
@@ -3051,21 +3112,34 @@
         <v>37</v>
       </c>
       <c r="J20">
-        <v>-184.97624635944101</v>
+        <v>-187.78169833857899</v>
       </c>
       <c r="K20" s="1">
         <f>(J20-27*K5-27*K6)/54</f>
-        <v>0.86070867852887001</v>
+        <v>0.8087558641003888</v>
       </c>
       <c r="M20">
         <f>ABS(K20-D36)/D36</f>
-        <v>0.53350307032949607</v>
+        <v>0.56166106271787553</v>
       </c>
       <c r="N20">
         <f>ABS(K20-D36)</f>
-        <v>0.98433814554520427</v>
-      </c>
-      <c r="R20" s="1"/>
+        <v>1.0362909599736856</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20">
+        <v>-187.78169833857899</v>
+      </c>
+      <c r="R20" s="1">
+        <f>(Q20-27*K5-27*K7)/54</f>
+        <v>0.2637558641003887</v>
+      </c>
+      <c r="U20">
+        <f>ABS(R20-D39)</f>
+        <v>0.2449290016403522</v>
+      </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -3112,17 +3186,17 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J23" s="3">
-        <v>1244.8401834782501</v>
+        <v>1319.4628536518001</v>
       </c>
       <c r="K23" s="5">
         <f>(J23-64*K$5-64*K$6)/128</f>
-        <v>14.01150865564605</v>
+        <v>14.59449826637691</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3">
         <f>ABS(K23-D20)</f>
-        <v>6.5217231056460498</v>
+        <v>7.104712716376909</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
@@ -3140,29 +3214,29 @@
         <v>2.4</v>
       </c>
       <c r="J24">
-        <v>-229.69618808537601</v>
+        <v>-189.62032829289299</v>
       </c>
       <c r="K24" s="1">
         <f>(J24-64*K$5-64*K$6)/128</f>
-        <v>2.4916932528052218</v>
+        <v>2.8047859074339954</v>
       </c>
       <c r="N24">
         <f>ABS(K24-D21)</f>
-        <v>8.3681597194778856E-2</v>
+        <v>0.2294110574339947</v>
       </c>
       <c r="P24">
         <v>2.4</v>
       </c>
       <c r="Q24">
-        <v>-147.71233033568001</v>
+        <v>-148.78739549330601</v>
       </c>
       <c r="R24" s="1">
         <f>(Q24-64*K$5-64*K$7)/128</f>
-        <v>2.5871921414747217</v>
+        <v>2.5787931949307685</v>
       </c>
       <c r="U24">
         <f>ABS(R24-D27)</f>
-        <v>5.8661316474720948E-2</v>
+        <v>5.0262369930767825E-2</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
@@ -3170,29 +3244,29 @@
         <v>2.6</v>
       </c>
       <c r="J25">
-        <v>-496.57267931696799</v>
+        <v>-483.984205108737</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" ref="K25:K27" si="2">(J25-64*K$5-64*K$6)/128</f>
-        <v>0.40672066505840965</v>
+        <v>0.50506811981021427</v>
       </c>
       <c r="N25">
         <f>ABS(K25-D22)</f>
-        <v>0.30773358494159098</v>
+        <v>0.20938613018978636</v>
       </c>
       <c r="P25">
         <v>2.6</v>
       </c>
       <c r="Q25">
-        <v>-426.103473802184</v>
+        <v>-426.38186140861097</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" ref="R25:R27" si="3">(Q25-64*K$5-64*K$7)/128</f>
-        <v>0.41226133314265945</v>
+        <v>0.41008642996744871</v>
       </c>
       <c r="U25">
         <f>ABS(R25-D28)</f>
-        <v>8.8037081426590724E-3</v>
+        <v>6.6288049674483318E-3</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
@@ -3206,29 +3280,29 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <v>-510.14640457014701</v>
+        <v>-518.87557243139702</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="2"/>
-        <v>0.30067593651794855</v>
+        <v>0.23247931260193289</v>
       </c>
       <c r="N26">
         <f>ABS(K26-D23)</f>
-        <v>9.1757686517948134E-2</v>
+        <v>2.356106260193247E-2</v>
       </c>
       <c r="P26">
         <v>3</v>
       </c>
       <c r="Q26">
-        <v>-511.37881805950002</v>
+        <v>-511.56217617612498</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="3"/>
-        <v>-0.25395229386762197</v>
+        <v>-0.25538477915375446</v>
       </c>
       <c r="U26">
         <f>ABS(R26-D29)</f>
-        <v>6.6004188676220821E-3</v>
+        <v>8.032904153754572E-3</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
@@ -3246,29 +3320,29 @@
         <v>3.2</v>
       </c>
       <c r="J27">
-        <v>-441.69643898847397</v>
+        <v>-453.72710742631898</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="2"/>
-        <v>0.83544129262476918</v>
+        <v>0.74145169545410505</v>
       </c>
       <c r="N27">
         <f>ABS(K27-D24)</f>
-        <v>0.20141054262476876</v>
+        <v>0.10742094545410463</v>
       </c>
       <c r="P27">
         <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>-479.18549628817101</v>
+        <v>-479.21008028871199</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="3"/>
-        <v>-2.4419675291140752E-3</v>
+        <v>-2.6340300333405064E-3</v>
       </c>
       <c r="U27">
         <f>ABS(R27-D30)</f>
-        <v>9.7209592529114097E-2</v>
+        <v>9.7401655033340528E-2</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
@@ -3330,11 +3404,11 @@
         <v>-0.28837169444444433</v>
       </c>
       <c r="F33">
-        <v>-233.517964304852</v>
+        <v>-1823.5788863038799</v>
       </c>
       <c r="G33">
-        <f>(F33-18*K5-18*K6-18*K7)/54</f>
-        <v>-0.34694359823799981</v>
+        <f>(F33-144*K5-144*K6-144*K7)/432</f>
+        <v>-0.24378427385157422</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">

--- a/davis_work/fenial_ncsu.xlsx
+++ b/davis_work/fenial_ncsu.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/davis_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB723C97-0C38-5942-A4FC-DF7CA40AD26C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F856D-6D81-D54D-96C3-C56153FAC9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="8160" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
+    <workbookView xWindow="14900" yWindow="4060" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="VASP" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>B2-FeNi</t>
   </si>
@@ -64,9 +64,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>V/at</t>
-  </si>
-  <si>
     <t>Lx</t>
   </si>
   <si>
@@ -143,14 +140,69 @@
   </si>
   <si>
     <t>feal liq</t>
+  </si>
+  <si>
+    <t>bccfe</t>
+  </si>
+  <si>
+    <t>100 K</t>
+  </si>
+  <si>
+    <t>running feniO again</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ly</t>
+  </si>
+  <si>
+    <t>Lz</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>ANSIO</t>
+  </si>
+  <si>
+    <t>fccni</t>
+  </si>
+  <si>
+    <t>fccal</t>
+  </si>
+  <si>
+    <t>FeNi</t>
+  </si>
+  <si>
+    <t>FeAl</t>
+  </si>
+  <si>
+    <t>L12 FeNi3</t>
+  </si>
+  <si>
+    <t>D03 FeNi3</t>
+  </si>
+  <si>
+    <t>L12 FeAl3</t>
+  </si>
+  <si>
+    <t>D03 FeAl3</t>
+  </si>
+  <si>
+    <t>10-&gt;1 K</t>
+  </si>
+  <si>
+    <t>0 K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -197,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -206,6 +258,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,16 +428,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.8047859074339954</c:v>
+                  <c:v>2.7053391251193157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50506811981021427</c:v>
+                  <c:v>0.57583189490037823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23247931260193289</c:v>
+                  <c:v>0.32677033172574532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74145169545410505</c:v>
+                  <c:v>0.74701299995435511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3736C-373F-3241-97CC-64F85E1DAEE3}">
   <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2391,7 +2445,7 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>-16.497081000000001</v>
@@ -2404,12 +2458,12 @@
         <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>-21.95054</v>
@@ -2430,7 +2484,7 @@
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>-14.842150999999999</v>
@@ -2440,7 +2494,7 @@
         <v>-3.7105377499999999</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>-222.60902999999999</v>
@@ -2452,10 +2506,17 @@
       <c r="L5">
         <v>629.06987000000004</v>
       </c>
+      <c r="M5">
+        <f>(L5^(1/3))/3</f>
+        <v>2.856132647311993</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>-480.6</v>
@@ -2467,6 +2528,10 @@
       <c r="L6">
         <v>1177.5836999999999</v>
       </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M7" si="0">(L6^(1/3))/3</f>
+        <v>3.5200000836968148</v>
+      </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
@@ -2485,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <v>-362.88</v>
@@ -2497,6 +2562,10 @@
       <c r="L7">
         <v>1793.6134</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4.050000018816764</v>
+      </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -2513,7 +2582,7 @@
         <v>23.2</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="F8:F17" si="0">E8^(1/3)</f>
+        <f t="shared" ref="F8:F17" si="1">E8^(1/3)</f>
         <v>2.8520862942848173</v>
       </c>
       <c r="G8" s="7">
@@ -2536,7 +2605,7 @@
         <v>43.61</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5198867904361495</v>
       </c>
       <c r="G9" s="7">
@@ -2544,13 +2613,13 @@
         <v>0.1125681250000008</v>
       </c>
       <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" t="s">
-        <v>24</v>
-      </c>
       <c r="U9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
@@ -2568,7 +2637,7 @@
         <v>186.89</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7173575745376199</v>
       </c>
       <c r="G10" s="7">
@@ -2576,28 +2645,28 @@
         <v>3.5159750000000711E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10">
-        <v>-547.185526984332</v>
+        <v>-526.25320882687902</v>
       </c>
       <c r="K10" s="1">
         <f>(J10-64*K$5-64*K$6)/128</f>
-        <v>1.1307792657128335E-2</v>
+        <v>0.17484152826222976</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
       <c r="M10">
         <f>ABS(K10-G8)/G8</f>
-        <v>0.86462151385172692</v>
+        <v>1.0932273989893104</v>
       </c>
       <c r="N10">
         <f>ABS(K10-G8)</f>
-        <v>7.2219457342871607E-2</v>
+        <v>9.131427826222982E-2</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10">
         <v>-518.96872422085005</v>
@@ -2616,7 +2685,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>-24.841161</v>
@@ -2629,7 +2698,7 @@
         <v>42.89</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5004081156753402</v>
       </c>
       <c r="G11" s="1">
@@ -2637,22 +2706,22 @@
         <v>-3.2428874999999913E-2</v>
       </c>
       <c r="J11">
-        <v>1445.3137312138799</v>
+        <v>1434.25802591772</v>
       </c>
       <c r="K11" s="1">
         <f>(J11^(1/3))/4</f>
-        <v>2.8265763327812778</v>
+        <v>2.8193507238420463</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
       </c>
       <c r="M11">
         <f>ABS(K11-F8)/F8</f>
-        <v>8.9443161501311721E-3</v>
+        <v>1.1477762965436386E-2</v>
       </c>
       <c r="N11">
         <f>ABS(K11-F8)</f>
-        <v>2.5509961503539458E-2</v>
+        <v>3.2735570442770978E-2</v>
       </c>
       <c r="Q11">
         <v>1574.11467196587</v>
@@ -2671,7 +2740,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2">
         <v>-98.397644999999997</v>
@@ -2684,7 +2753,7 @@
         <v>179.2</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6378389856519133</v>
       </c>
       <c r="G12" s="1">
@@ -2692,28 +2761,28 @@
         <v>2.8008562500000167E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>-453.21481690838698</v>
+        <v>-414.39745614344201</v>
       </c>
       <c r="K12" s="1">
         <f>(J12-81*K$5-27*K$6)/108</f>
-        <v>7.8585934408608258E-3</v>
+        <v>0.36727860052368455</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
       </c>
       <c r="M12">
         <f>ABS(K12-G9)/G9</f>
-        <v>0.93018811105842991</v>
+        <v>2.2627229113364193</v>
       </c>
       <c r="N12">
         <f>ABS(K12-G9)</f>
-        <v>0.10470953155913997</v>
+        <v>0.25471047552368375</v>
       </c>
       <c r="P12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q12">
         <v>-437.01047149370697</v>
@@ -2745,7 +2814,7 @@
         <v>23.8</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8764642824468321</v>
       </c>
       <c r="G13" s="7">
@@ -2753,22 +2822,22 @@
         <v>-0.34192237499999956</v>
       </c>
       <c r="J13">
-        <v>1104.2480806502899</v>
+        <v>1252.73751918884</v>
       </c>
       <c r="K13" s="1">
         <f>(J13^(1/3))/3</f>
-        <v>3.4453575325284582</v>
+        <v>3.5933438194340077</v>
       </c>
       <c r="L13" t="s">
         <v>1</v>
       </c>
       <c r="M13">
         <f>ABS(K13-F9)/F9</f>
-        <v>2.1173765619449468E-2</v>
+        <v>2.0869145336562415E-2</v>
       </c>
       <c r="N13">
         <f>ABS(K13-F9)</f>
-        <v>7.4529257907691271E-2</v>
+        <v>7.345702899785822E-2</v>
       </c>
       <c r="Q13">
         <v>1245.4946754837599</v>
@@ -2800,7 +2869,7 @@
         <v>48.66</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6508223580223329</v>
       </c>
       <c r="G14" s="7">
@@ -2808,28 +2877,28 @@
         <v>-0.20439443749999964</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14">
-        <v>-552.19728701056897</v>
+        <v>-540.425492401425</v>
       </c>
       <c r="K14" s="1">
         <f>(J14-96*K$5-32*K$6)/128</f>
-        <v>-0.10974922143673704</v>
+        <v>-1.77820760527998E-2</v>
       </c>
       <c r="L14" t="s">
         <v>7</v>
       </c>
       <c r="M14">
         <f>ABS(K14-G10)/G10</f>
-        <v>4.1214448747995887</v>
+        <v>1.5057509240765206</v>
       </c>
       <c r="N14">
         <f>ABS(K14-G10)</f>
-        <v>0.14490897143673775</v>
+        <v>5.2941826052800511E-2</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q14">
         <v>-532.22231661059004</v>
@@ -2861,7 +2930,7 @@
         <v>188.51</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7338298049732161</v>
       </c>
       <c r="G15" s="7">
@@ -2869,22 +2938,22 @@
         <v>-0.20364268749999959</v>
       </c>
       <c r="J15">
-        <v>1336.2520989156701</v>
+        <v>1351.8175396891199</v>
       </c>
       <c r="K15" s="1">
         <f>(J15^(1/3))/2</f>
-        <v>5.5072248013706373</v>
+        <v>5.5285260889858163</v>
       </c>
       <c r="L15" t="s">
         <v>1</v>
       </c>
       <c r="M15">
         <f>ABS(K15-F10)/F10</f>
-        <v>3.6753477533539906E-2</v>
+        <v>3.3027755058170384E-2</v>
       </c>
       <c r="N15">
         <f>ABS(K15-F10)</f>
-        <v>0.21013277316698264</v>
+        <v>0.18883148555180362</v>
       </c>
       <c r="Q15">
         <v>1466.6170251179201</v>
@@ -2903,7 +2972,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>-19.916687</v>
@@ -2916,7 +2985,7 @@
         <v>54.69</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7957940537531725</v>
       </c>
       <c r="G16" s="1">
@@ -2924,28 +2993,28 @@
         <v>-0.13413331249999993</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16">
-        <v>-453.08379694149602</v>
+        <v>-467.28590331942303</v>
       </c>
       <c r="K16" s="1">
         <f>(J16-81*K$6-27*K$5)/108</f>
-        <v>0.17287701906022176</v>
+        <v>4.1376034079416125E-2</v>
       </c>
       <c r="L16" t="s">
         <v>7</v>
       </c>
       <c r="M16">
         <f>ABS(K16-G11)/G11</f>
-        <v>-6.3309594939763478</v>
+        <v>-2.2759010011730667</v>
       </c>
       <c r="N16">
         <f>ABS(K16-G11)</f>
-        <v>0.20530589406022168</v>
+        <v>7.3804909079416031E-2</v>
       </c>
       <c r="P16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16">
         <v>-388.887529631966</v>
@@ -2964,7 +3033,7 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>-78.097783000000007</v>
@@ -2977,7 +3046,7 @@
         <v>213.69</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9785344074144984</v>
       </c>
       <c r="G17" s="1">
@@ -2985,22 +3054,22 @@
         <v>-3.6073000000000466E-2</v>
       </c>
       <c r="J17">
-        <v>1097.8284557223601</v>
+        <v>1053.2684558021001</v>
       </c>
       <c r="K17" s="1">
         <f>(J17^(1/3))/3</f>
-        <v>3.4386679417272847</v>
+        <v>3.3914996079501782</v>
       </c>
       <c r="L17" t="s">
         <v>1</v>
       </c>
       <c r="M17">
         <f>ABS(K17-F11)/F11</f>
-        <v>1.7637993030462328E-2</v>
+        <v>3.1113088567431231E-2</v>
       </c>
       <c r="N17">
         <f>ABS(K17-F11)</f>
-        <v>6.1740173948055421E-2</v>
+        <v>0.10890850772516192</v>
       </c>
       <c r="Q17">
         <v>1601.6130000000001</v>
@@ -3019,28 +3088,28 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18">
-        <v>-552.01525109592501</v>
+        <v>-551.26710414698402</v>
       </c>
       <c r="K18" s="1">
         <f>(J18-96*K$6-32*K$5)/128</f>
-        <v>5.5478211924197218E-2</v>
+        <v>6.1323109962798661E-2</v>
       </c>
       <c r="L18" t="s">
         <v>7</v>
       </c>
       <c r="M18">
         <f>ABS(K18-G12)/G12</f>
-        <v>0.98075898840566655</v>
+        <v>1.1894415310603068</v>
       </c>
       <c r="N18">
         <f>ABS(K18-G12)</f>
-        <v>2.7469649424197051E-2</v>
+        <v>3.3314547462798494E-2</v>
       </c>
       <c r="P18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q18">
         <v>-466.68490865285497</v>
@@ -3059,28 +3128,28 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="J19">
-        <v>1338.14900279883</v>
+        <v>1366.22606217869</v>
       </c>
       <c r="K19" s="1">
         <f>(J19^(1/3))/2</f>
-        <v>5.5098295336040479</v>
+        <v>5.5480988837709342</v>
       </c>
       <c r="L19" t="s">
         <v>1</v>
       </c>
       <c r="M19">
         <f>ABS(K19-F12)/F12</f>
-        <v>2.270541112891741E-2</v>
+        <v>1.5917464494705207E-2</v>
       </c>
       <c r="N19">
         <f>ABS(K19-F12)</f>
-        <v>0.1280094520478654</v>
+        <v>8.974010188097914E-2</v>
       </c>
       <c r="Q19">
         <v>1833.5532921475201</v>
@@ -3109,25 +3178,25 @@
         <v>7.4897855500000006</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20">
-        <v>-187.78169833857899</v>
+        <v>-197.29561650236499</v>
       </c>
       <c r="K20" s="1">
         <f>(J20-27*K5-27*K6)/54</f>
-        <v>0.8087558641003888</v>
+        <v>0.63257219440064805</v>
       </c>
       <c r="M20">
         <f>ABS(K20-D36)/D36</f>
-        <v>0.56166106271787553</v>
+        <v>0.65715114318678569</v>
       </c>
       <c r="N20">
         <f>ABS(K20-D36)</f>
-        <v>1.0362909599736856</v>
+        <v>1.2124746296734261</v>
       </c>
       <c r="P20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q20">
         <v>-187.78169833857899</v>
@@ -3161,14 +3230,14 @@
         <v>-12.307267</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D24" si="1">(C22-D$3-D$4)/2</f>
+        <f t="shared" ref="D22:D24" si="2">(C22-D$3-D$4)/2</f>
         <v>0.71445425000000062</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
@@ -3179,7 +3248,7 @@
         <v>-13.318339</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20891825000000042</v>
       </c>
       <c r="I23" s="3">
@@ -3207,22 +3276,22 @@
         <v>-12.468114</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63403075000000042</v>
       </c>
       <c r="I24">
         <v>2.4</v>
       </c>
       <c r="J24">
-        <v>-189.62032829289299</v>
+        <v>-202.34951642917201</v>
       </c>
       <c r="K24" s="1">
         <f>(J24-64*K$5-64*K$6)/128</f>
-        <v>2.8047859074339954</v>
+        <v>2.7053391251193157</v>
       </c>
       <c r="N24">
         <f>ABS(K24-D21)</f>
-        <v>0.2294110574339947</v>
+        <v>0.12996427511931508</v>
       </c>
       <c r="P24">
         <v>2.4</v>
@@ -3244,15 +3313,15 @@
         <v>2.6</v>
       </c>
       <c r="J25">
-        <v>-483.984205108737</v>
+        <v>-474.92644189719601</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:K27" si="2">(J25-64*K$5-64*K$6)/128</f>
-        <v>0.50506811981021427</v>
+        <f t="shared" ref="K25:K27" si="3">(J25-64*K$5-64*K$6)/128</f>
+        <v>0.57583189490037823</v>
       </c>
       <c r="N25">
         <f>ABS(K25-D22)</f>
-        <v>0.20938613018978636</v>
+        <v>0.1386223550996224</v>
       </c>
       <c r="P25">
         <v>2.6</v>
@@ -3261,7 +3330,7 @@
         <v>-426.38186140861097</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" ref="R25:R27" si="3">(Q25-64*K$5-64*K$7)/128</f>
+        <f t="shared" ref="R25:R27" si="4">(Q25-64*K$5-64*K$7)/128</f>
         <v>0.41008642996744871</v>
       </c>
       <c r="U25">
@@ -3271,7 +3340,7 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -3280,15 +3349,15 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <v>-518.87557243139702</v>
+        <v>-506.80632198354903</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23247931260193289</v>
+        <f t="shared" si="3"/>
+        <v>0.32677033172574532</v>
       </c>
       <c r="N26">
         <f>ABS(K26-D23)</f>
-        <v>2.356106260193247E-2</v>
+        <v>0.11785208172574491</v>
       </c>
       <c r="P26">
         <v>3</v>
@@ -3297,7 +3366,7 @@
         <v>-511.56217617612498</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.25538477915375446</v>
       </c>
       <c r="U26">
@@ -3320,15 +3389,15 @@
         <v>3.2</v>
       </c>
       <c r="J27">
-        <v>-453.72710742631898</v>
+        <v>-453.01526045028697</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.74145169545410505</v>
+        <f t="shared" si="3"/>
+        <v>0.74701299995435511</v>
       </c>
       <c r="N27">
         <f>ABS(K27-D24)</f>
-        <v>0.10742094545410463</v>
+        <v>0.11298224995435469</v>
       </c>
       <c r="P27">
         <v>3.2</v>
@@ -3337,7 +3406,7 @@
         <v>-479.21008028871199</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.6340300333405064E-3</v>
       </c>
       <c r="U27">
@@ -3353,7 +3422,7 @@
         <v>-11.152163</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:D30" si="4">(C28-D$3-D$5)/2</f>
+        <f t="shared" ref="D28:D30" si="5">(C28-D$3-D$5)/2</f>
         <v>0.40345762500000037</v>
       </c>
     </row>
@@ -3365,9 +3434,10 @@
         <v>-12.453782</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.24735187499999989</v>
       </c>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30">
@@ -3377,13 +3447,13 @@
         <v>-11.769543000000001</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4767625000000022E-2</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -3392,7 +3462,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -3413,7 +3483,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -3433,7 +3503,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -3459,339 +3529,533 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB44CA87-7D8A-AA42-99AE-27533BB15510}">
-  <dimension ref="B3:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF32FC20-C67B-5347-85D8-3691B7232B5F}">
+  <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>-1028.19</v>
+      </c>
+      <c r="D3">
+        <v>2906.05</v>
+      </c>
+      <c r="E3">
+        <v>-14.529199999999999</v>
+      </c>
+      <c r="F3">
+        <v>14.270300000000001</v>
+      </c>
+      <c r="G3">
+        <v>14.270300000000001</v>
+      </c>
+      <c r="H3">
+        <v>14.270300000000001</v>
+      </c>
+      <c r="I3">
+        <f>C3/250</f>
+        <v>-4.1127600000000006</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(F3:H3)/5</f>
+        <v>2.85406</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>-1019.31</v>
+      </c>
+      <c r="P3">
+        <v>2927.78</v>
+      </c>
+      <c r="Q3">
+        <v>210.483</v>
+      </c>
+      <c r="R3">
+        <v>14.3042</v>
+      </c>
+      <c r="S3">
+        <v>14.305999999999999</v>
+      </c>
+      <c r="T3">
+        <v>14.306699999999999</v>
+      </c>
+      <c r="U3">
+        <f>O3/250</f>
+        <v>-4.0772399999999998</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(R3:T3)/5</f>
+        <v>2.8611266666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>-1136.01</v>
+      </c>
+      <c r="D4">
+        <v>2795.74</v>
+      </c>
+      <c r="E4">
+        <v>-1.49329</v>
+      </c>
+      <c r="F4">
+        <v>14.088800000000001</v>
+      </c>
+      <c r="G4">
+        <v>14.0883</v>
+      </c>
+      <c r="H4">
+        <v>14.0853</v>
+      </c>
+      <c r="I4">
+        <f>C4/256</f>
+        <v>-4.4375390625</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="0">AVERAGE(F4:H4)/4</f>
+        <v>3.5218666666666665</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4">
+        <v>-1134.52</v>
+      </c>
+      <c r="P4">
+        <v>2798.91</v>
+      </c>
+      <c r="Q4">
+        <v>60.695999999999998</v>
+      </c>
+      <c r="R4">
+        <v>14.0913</v>
+      </c>
+      <c r="S4">
+        <v>14.092000000000001</v>
+      </c>
+      <c r="T4">
+        <v>14.0951</v>
+      </c>
+      <c r="U4">
+        <f>O4/256</f>
+        <v>-4.4317187499999999</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V5" si="1">AVERAGE(R4:T4)/4</f>
+        <v>3.5232000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>-857.01499999999999</v>
+      </c>
+      <c r="D5">
+        <v>4262.97</v>
+      </c>
+      <c r="E5">
+        <v>5.0531300000000003</v>
+      </c>
+      <c r="F5">
+        <v>16.2163</v>
+      </c>
+      <c r="G5">
+        <v>16.214700000000001</v>
+      </c>
+      <c r="H5">
+        <v>16.212499999999999</v>
+      </c>
+      <c r="I5">
+        <f>C5/256</f>
+        <v>-3.3477148437499999</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>4.0536249999999994</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>-856.351</v>
+      </c>
+      <c r="P5">
+        <v>4265.7700000000004</v>
+      </c>
+      <c r="Q5">
+        <v>24.557700000000001</v>
+      </c>
+      <c r="R5">
+        <v>16.220099999999999</v>
+      </c>
+      <c r="S5">
+        <v>16.217500000000001</v>
+      </c>
+      <c r="T5">
+        <v>16.216699999999999</v>
+      </c>
+      <c r="U5">
+        <f>O5/256</f>
+        <v>-3.34512109375</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>4.0545250000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>-1074.3</v>
+      </c>
+      <c r="D8">
+        <v>2702.9</v>
+      </c>
+      <c r="E8">
+        <v>1.27576</v>
+      </c>
+      <c r="F8">
+        <v>13.9297</v>
+      </c>
+      <c r="G8">
+        <v>13.9297</v>
+      </c>
+      <c r="H8">
+        <v>13.9297</v>
+      </c>
+      <c r="I8">
+        <f>C8/250</f>
+        <v>-4.2972000000000001</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(F8:H8)/5</f>
+        <v>2.7859400000000005</v>
+      </c>
+      <c r="K8">
+        <f>I8-0.5*I3-0.5*I4</f>
+        <v>-2.205046874999983E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <f>C9/256</f>
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E3">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="J9" t="e">
+        <f t="shared" ref="J9:J10" si="2">AVERAGE(F9:H9)/4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <f>C10/256</f>
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>2.8410000000000002</v>
-      </c>
-      <c r="E4">
-        <v>2.8540000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>3.673</v>
-      </c>
-      <c r="E6">
-        <v>3.5779999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E7">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5.7619999999999996</v>
-      </c>
-      <c r="E8">
-        <v>5.718</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>-0.33300000000000002</v>
-      </c>
-      <c r="E9">
-        <v>-0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2.8780000000000001</v>
-      </c>
-      <c r="E10">
-        <v>2.875</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>-0.13700000000000001</v>
-      </c>
-      <c r="E11">
-        <v>-0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3.5848</v>
-      </c>
-      <c r="E12">
-        <v>3.7970000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>-0.24399999999999999</v>
-      </c>
-      <c r="E13">
-        <v>-0.20100000000000001</v>
-      </c>
-      <c r="H13">
-        <v>-534.53581999999994</v>
-      </c>
-      <c r="I13">
-        <v>1470.2156</v>
-      </c>
-      <c r="L13">
-        <v>-521.63436076449898</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>5.6879999999999997</v>
-      </c>
-      <c r="E14">
-        <v>5.9859999999999998</v>
-      </c>
-      <c r="H14" s="1">
-        <f>(H13-96*D19-32*D21)/128</f>
-        <v>-0.2442690104166666</v>
-      </c>
-      <c r="I14" s="1">
-        <f>(I13^(1/3))/2</f>
-        <v>5.685434753116219</v>
-      </c>
-      <c r="L14">
-        <v>1516.0945132677</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L16">
-        <v>-521.63436076449898</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17">
-        <v>1516.0945132677</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="H18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="C27">
+        <v>-1031.46</v>
+      </c>
+      <c r="D27">
+        <v>2905.27</v>
+      </c>
+      <c r="E27">
+        <v>-0.36910900000000002</v>
+      </c>
+      <c r="F27">
+        <v>14.2691</v>
+      </c>
+      <c r="G27">
+        <v>14.2691</v>
+      </c>
+      <c r="H27">
+        <v>14.2691</v>
+      </c>
+      <c r="I27" s="8">
+        <f>C27/250</f>
+        <v>-4.1258400000000002</v>
+      </c>
+      <c r="J27" s="8">
+        <f>AVERAGE(F27:H27)/5</f>
+        <v>2.8538199999999998</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-4.122389444444444</v>
+      </c>
+      <c r="M27" s="8">
+        <v>2.856132647311993</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>-222.60902999999999</v>
-      </c>
-      <c r="D19">
-        <f>C19/54</f>
-        <v>-4.122389444444444</v>
-      </c>
-      <c r="E19">
-        <v>629.06987000000004</v>
-      </c>
-      <c r="F19">
-        <f>E19/54</f>
-        <v>11.649442037037037</v>
-      </c>
-      <c r="G19">
-        <v>8.5683979288778698</v>
-      </c>
-      <c r="H19">
-        <f>G19/3</f>
-        <v>2.8561326429592899</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="C28">
+        <v>-480.654</v>
+      </c>
+      <c r="D28">
+        <v>1176.8</v>
+      </c>
+      <c r="E28">
+        <v>-0.13983699999999999</v>
+      </c>
+      <c r="F28">
+        <v>10.557600000000001</v>
+      </c>
+      <c r="G28">
+        <v>10.557600000000001</v>
+      </c>
+      <c r="H28">
+        <v>10.557600000000001</v>
+      </c>
+      <c r="I28" s="8">
+        <f>C28/108</f>
+        <v>-4.4504999999999999</v>
+      </c>
+      <c r="J28" s="8">
+        <f>AVERAGE(F28:H28)/3</f>
+        <v>3.5192000000000001</v>
+      </c>
+      <c r="L28" s="9">
+        <v>-4.45</v>
+      </c>
+      <c r="M28" s="8">
+        <v>3.5200000836968148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
-        <v>-480.6</v>
-      </c>
-      <c r="D20">
-        <f>C20/108</f>
-        <v>-4.45</v>
-      </c>
-      <c r="E20">
-        <v>1177.5836999999999</v>
-      </c>
-      <c r="F20">
-        <f>E20/108</f>
-        <v>10.903552777777778</v>
-      </c>
-      <c r="G20">
-        <v>10.5600001682896</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20:H21" si="0">G20/3</f>
-        <v>3.5200000560965332</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>-362.88</v>
-      </c>
-      <c r="D21">
-        <f>C21/108</f>
+      <c r="C29">
+        <v>-362.92700000000002</v>
+      </c>
+      <c r="D29">
+        <v>1792.88</v>
+      </c>
+      <c r="E29">
+        <v>-5.9604400000000002E-2</v>
+      </c>
+      <c r="F29">
+        <v>12.148300000000001</v>
+      </c>
+      <c r="G29">
+        <v>12.148300000000001</v>
+      </c>
+      <c r="H29">
+        <v>12.148300000000001</v>
+      </c>
+      <c r="I29" s="8">
+        <f>C29/108</f>
+        <v>-3.3604351851851852</v>
+      </c>
+      <c r="J29" s="8">
+        <f>AVERAGE(F29:H29)/3</f>
+        <v>4.0494333333333339</v>
+      </c>
+      <c r="L29" s="9">
         <v>-3.36</v>
       </c>
-      <c r="E21">
-        <v>1793.6134</v>
-      </c>
-      <c r="F21">
-        <f>E21/108</f>
-        <v>16.60753148148148</v>
-      </c>
-      <c r="G21">
-        <v>12.1500000095179</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>4.0500000031726335</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>-560.91322586661295</v>
-      </c>
-      <c r="D24" s="1">
-        <f>(C24-64*D$19-64*D$20)/128</f>
-        <v>-9.5939854860691565E-2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>1369.5139752457701</v>
-      </c>
-      <c r="D25" s="1">
-        <f>(C25^(1/3))/4</f>
-        <v>2.7762729700893285</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
+      <c r="M29" s="8">
+        <v>4.050000018816764</v>
       </c>
     </row>
   </sheetData>

--- a/davis_work/fenial_ncsu.xlsx
+++ b/davis_work/fenial_ncsu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/davis_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F856D-6D81-D54D-96C3-C56153FAC9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA06FA46-EAAE-164A-991C-5C887531C54E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14900" yWindow="4060" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/davis_work/fenial_ncsu.xlsx
+++ b/davis_work/fenial_ncsu.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/davis_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA06FA46-EAAE-164A-991C-5C887531C54E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F84C3-4F8D-6B46-B661-9B4BEF07E1D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="4060" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
+    <workbookView xWindow="11100" yWindow="1620" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="VASP" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>B2-FeNi</t>
   </si>
@@ -116,9 +115,6 @@
     <t>LAMMPS</t>
   </si>
   <si>
-    <t>potentials from feniK and fealK</t>
-  </si>
-  <si>
     <t>liquid feni</t>
   </si>
   <si>
@@ -137,21 +133,12 @@
     <t>D03-FeAl3</t>
   </si>
   <si>
-    <t>feni liq</t>
-  </si>
-  <si>
-    <t>feal liq</t>
-  </si>
-  <si>
     <t>bccfe</t>
   </si>
   <si>
     <t>100 K</t>
   </si>
   <si>
-    <t>running feniO again</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -195,6 +182,30 @@
   </si>
   <si>
     <t>0 K</t>
+  </si>
+  <si>
+    <t>B2-NiAl</t>
+  </si>
+  <si>
+    <t>L12-Ni3Al</t>
+  </si>
+  <si>
+    <t>B2 NiAl</t>
+  </si>
+  <si>
+    <t>L12 Ni3Al</t>
+  </si>
+  <si>
+    <t>Primary Targets</t>
+  </si>
+  <si>
+    <t>Secondary Targets</t>
+  </si>
+  <si>
+    <t>D03 Ni3Al</t>
+  </si>
+  <si>
+    <t>L12 NiAl3</t>
   </si>
 </sst>
 </file>
@@ -250,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +272,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,7 +342,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>VASP!$B$21:$B$24</c:f>
+              <c:f>VASP!$B$25:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -348,7 +363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VASP!$D$21:$D$24</c:f>
+              <c:f>VASP!$D$25:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -371,82 +386,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F77B-324A-9923-B8D75DC0CDEE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>VASP!$I$24:$I$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>VASP!$K$24:$K$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.7053391251193157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57583189490037823</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32677033172574532</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74701299995435511</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F77B-324A-9923-B8D75DC0CDEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -658,7 +597,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>VASP!$B$21:$B$24</c:f>
+              <c:f>VASP!$B$25:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -679,7 +618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VASP!$D$27:$D$30</c:f>
+              <c:f>VASP!$D$31:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -734,22 +673,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>VASP!$I$24:$I$27</c:f>
+              <c:f>VASP!$I$23:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -759,18 +686,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.5787931949307685</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41008642996744871</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.25538477915375446</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.6340300333405064E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2428,23 +2343,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3736C-373F-3241-97CC-64F85E1DAEE3}">
-  <dimension ref="B2:U39"/>
+  <dimension ref="B2:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -2455,14 +2373,17 @@
         <f>C3/2</f>
         <v>-8.2485405000000007</v>
       </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -2473,17 +2394,21 @@
         <f>C4/4</f>
         <v>-5.487635</v>
       </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>-222.62235085452599</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4/54</f>
+        <v>-4.1226361269356664</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.8551735723373146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -2495,46 +2420,35 @@
         <v>-3.7105377499999999</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5">
-        <v>-222.60902999999999</v>
-      </c>
-      <c r="K5" s="6">
-        <f>J5/54</f>
-        <v>-4.122389444444444</v>
-      </c>
-      <c r="L5">
-        <v>629.06987000000004</v>
-      </c>
-      <c r="M5">
-        <f>(L5^(1/3))/3</f>
-        <v>2.856132647311993</v>
-      </c>
-      <c r="O5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-473.497674384959</v>
+      </c>
+      <c r="K5" s="1">
+        <f>J5/108</f>
+        <v>-4.3842377257866572</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.0437945289373216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>-480.6</v>
-      </c>
-      <c r="K6" s="6">
+        <v>-367.96070249305899</v>
+      </c>
+      <c r="K6" s="1">
         <f>J6/108</f>
-        <v>-4.45</v>
-      </c>
-      <c r="L6">
-        <v>1177.5836999999999</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M7" si="0">(L6^(1/3))/3</f>
-        <v>3.5200000836968148</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-3.4070435416023979</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.5173563759333217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -2550,63 +2464,52 @@
       <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7">
-        <v>-362.88</v>
-      </c>
-      <c r="K7" s="6">
-        <f>J7/108</f>
-        <v>-3.36</v>
-      </c>
-      <c r="L7">
-        <v>1793.6134</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>4.050000018816764</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="12">
         <v>-13.569121000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="12">
         <f>C8/2</f>
         <v>-6.7845605000000004</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="11">
         <v>23.2</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" ref="F8:F17" si="1">E8^(1/3)</f>
+      <c r="F8" s="13">
+        <f t="shared" ref="F8:F17" si="0">E8^(1/3)</f>
         <v>2.8520862942848173</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="13">
         <f>(C8-D$3-D$4)/2</f>
         <v>8.3527249999999942E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>-29.782983999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <f>C9/4</f>
         <v>-7.4457459999999998</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>43.61</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5198867904361495</v>
       </c>
       <c r="G9" s="7">
@@ -2619,26 +2522,23 @@
       <c r="N9" t="s">
         <v>23</v>
       </c>
-      <c r="U9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <v>-120.37047</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
         <f>C10/16</f>
         <v>-7.5231543749999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>186.89</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7173575745376199</v>
       </c>
       <c r="G10" s="7">
@@ -2646,47 +2546,34 @@
         <v>3.5159750000000711E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>-526.25320882687902</v>
+        <v>-442.10468100461702</v>
       </c>
       <c r="K10" s="1">
-        <f>(J10-64*K$5-64*K$6)/128</f>
-        <v>0.17484152826222976</v>
+        <f>(J10-81*K4-27*K5)/108</f>
+        <v>9.4474665494553037E-2</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
       <c r="M10">
-        <f>ABS(K10-G8)/G8</f>
-        <v>1.0932273989893104</v>
+        <f>ABS(K10-G9)/G9</f>
+        <v>0.16073341814521322</v>
       </c>
       <c r="N10">
-        <f>ABS(K10-G8)</f>
-        <v>9.131427826222982E-2</v>
+        <f>ABS(K10-G9)</f>
+        <v>1.8093459505447759E-2</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10">
-        <v>-518.96872422085005</v>
-      </c>
-      <c r="R10" s="1">
-        <f>(Q10-64*K$5-64*K$7)/128</f>
-        <v>-0.31324843575316907</v>
-      </c>
-      <c r="S10" t="s">
-        <v>7</v>
-      </c>
-      <c r="U10">
-        <f>ABS(R10-G13)</f>
-        <v>2.8673939246830482E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>-24.841161</v>
@@ -2699,7 +2586,7 @@
         <v>42.89</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5004081156753402</v>
       </c>
       <c r="G11" s="1">
@@ -2707,41 +2594,28 @@
         <v>-3.2428874999999913E-2</v>
       </c>
       <c r="J11">
-        <v>1434.25802591772</v>
+        <v>1233.3788461301799</v>
       </c>
       <c r="K11" s="1">
-        <f>(J11^(1/3))/4</f>
-        <v>2.8193507238420463</v>
+        <f>(J11^(1/3))/3</f>
+        <v>3.5747382208061791</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
       </c>
       <c r="M11">
-        <f>ABS(K11-F8)/F8</f>
-        <v>1.1477762965436386E-2</v>
+        <f>ABS(K11-F9)/F9</f>
+        <v>1.5583293905663639E-2</v>
       </c>
       <c r="N11">
-        <f>ABS(K11-F8)</f>
-        <v>3.2735570442770978E-2</v>
-      </c>
-      <c r="Q11">
-        <v>1574.11467196587</v>
-      </c>
-      <c r="R11" s="1">
-        <f>(Q11^(1/3))/4</f>
-        <v>2.9081633545125967</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <f>ABS(R11-F13)</f>
-        <v>3.1699072065764611E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+        <f>ABS(K11-F9)</f>
+        <v>5.4851430370029597E-2</v>
+      </c>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
         <v>-98.397644999999997</v>
@@ -2754,7 +2628,7 @@
         <v>179.2</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6378389856519133</v>
       </c>
       <c r="G12" s="1">
@@ -2762,766 +2636,619 @@
         <v>2.8008562500000167E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12">
-        <v>-414.39745614344201</v>
+        <v>-529.27387405690399</v>
       </c>
       <c r="K12" s="1">
-        <f>(J12-81*K$5-27*K$6)/108</f>
-        <v>0.36727860052368455</v>
+        <f>(J12-96*K5-32*K6)/128</f>
+        <v>4.9870386710296755E-3</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
       </c>
       <c r="M12">
-        <f>ABS(K12-G9)/G9</f>
-        <v>2.2627229113364193</v>
+        <f>ABS(K12-G10)/G10</f>
+        <v>0.85816057648221122</v>
       </c>
       <c r="N12">
-        <f>ABS(K12-G9)</f>
-        <v>0.25471047552368375</v>
+        <f>ABS(K12-G10)</f>
+        <v>3.0172711328971036E-2</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12">
-        <v>-437.01047149370697</v>
-      </c>
-      <c r="R12" s="1">
-        <f>(Q12-81*K$5-27*K$7)/108</f>
-        <v>-0.11460117123802807</v>
-      </c>
-      <c r="S12" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12">
-        <f>ABS(R12-G14)</f>
-        <v>8.9793266261971566E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="12">
         <v>-12.642923</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="12">
         <f>C13/2</f>
         <v>-6.3214614999999998</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <v>23.8</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="1"/>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
         <v>2.8764642824468321</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="13">
         <f>(C13-D$3-D$5)/2</f>
         <v>-0.34192237499999956</v>
       </c>
       <c r="J13">
-        <v>1252.73751918884</v>
+        <v>1426.9125842842</v>
       </c>
       <c r="K13" s="1">
-        <f>(J13^(1/3))/3</f>
-        <v>3.5933438194340077</v>
+        <f>(J13^(1/3))/2</f>
+        <v>5.6290589098378518</v>
       </c>
       <c r="L13" t="s">
         <v>1</v>
       </c>
       <c r="M13">
-        <f>ABS(K13-F9)/F9</f>
-        <v>2.0869145336562415E-2</v>
+        <f>ABS(K13-F10)/F10</f>
+        <v>1.5443964025095821E-2</v>
       </c>
       <c r="N13">
-        <f>ABS(K13-F9)</f>
-        <v>7.345702899785822E-2</v>
-      </c>
-      <c r="Q13">
-        <v>1245.4946754837599</v>
-      </c>
-      <c r="R13" s="1">
-        <f>(Q13^(1/3))/3</f>
-        <v>3.5864053223512418</v>
-      </c>
-      <c r="S13" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <f>ABS(R13-F14)</f>
-        <v>6.4417035671091138E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+        <f>ABS(K13-F10)</f>
+        <v>8.8298664699768104E-2</v>
+      </c>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="10">
         <v>-29.273737000000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="10">
         <f>C14/4</f>
         <v>-7.3184342500000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>48.66</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.6508223580223329</v>
       </c>
       <c r="G14" s="7">
         <f>(C14-3*D$3-D$5)/4</f>
         <v>-0.20439443749999964</v>
       </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14">
-        <v>-540.425492401425</v>
-      </c>
-      <c r="K14" s="1">
-        <f>(J14-96*K$5-32*K$6)/128</f>
-        <v>-1.77820760527998E-2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <f>ABS(K14-G10)/G10</f>
-        <v>1.5057509240765206</v>
-      </c>
-      <c r="N14">
-        <f>ABS(K14-G10)</f>
-        <v>5.2941826052800511E-2</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14">
-        <v>-532.22231661059004</v>
-      </c>
-      <c r="R14" s="1">
-        <f>(Q14-96*K$5-32*K$7)/128</f>
-        <v>-0.22619476518690174</v>
-      </c>
-      <c r="S14" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14">
-        <f>ABS(R14-G15)</f>
-        <v>2.255207768690215E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="K14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="10">
         <v>-117.08292</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="10">
         <f>C15/16</f>
         <v>-7.3176825000000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>188.51</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7338298049732161</v>
       </c>
       <c r="G15" s="7">
         <f>(C15-12*D$3-4*D$5)/16</f>
         <v>-0.20364268749999959</v>
       </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
       <c r="J15">
-        <v>1351.8175396891199</v>
+        <v>-444.69284173460301</v>
       </c>
       <c r="K15" s="1">
-        <f>(J15^(1/3))/2</f>
-        <v>5.5285260889858163</v>
+        <f>(J15-81*K4-27*K6)/108</f>
+        <v>-0.17378833175508573</v>
       </c>
       <c r="L15" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <f>ABS(K15-F10)/F10</f>
-        <v>3.3027755058170384E-2</v>
+        <f>ABS(K15-G14)/G14</f>
+        <v>-0.14974040448098769</v>
       </c>
       <c r="N15">
-        <f>ABS(K15-F10)</f>
-        <v>0.18883148555180362</v>
-      </c>
-      <c r="Q15">
-        <v>1466.6170251179201</v>
-      </c>
-      <c r="R15" s="1">
-        <f>(Q15^(1/3))/2</f>
-        <v>5.6807923097506885</v>
-      </c>
-      <c r="S15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <f>ABS(R15-F15)</f>
-        <v>5.3037495222527653E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2">
+        <f>ABS(K15-G14)</f>
+        <v>3.0606105744913903E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="12">
         <v>-19.916687</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="12">
         <f>C16/4</f>
         <v>-4.9791717499999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <v>54.69</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
         <v>3.7957940537531725</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="13">
         <f>(C16-D$3-3*D$5)/4</f>
         <v>-0.13413331249999993</v>
       </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
       <c r="J16">
-        <v>-467.28590331942303</v>
+        <v>1330.6536113955699</v>
       </c>
       <c r="K16" s="1">
-        <f>(J16-81*K$6-27*K$5)/108</f>
-        <v>4.1376034079416125E-2</v>
+        <f>(J16^(1/3))/3</f>
+        <v>3.6663485595430418</v>
       </c>
       <c r="L16" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <f>ABS(K16-G11)/G11</f>
-        <v>-2.2759010011730667</v>
+        <f>ABS(K16-F14)/F14</f>
+        <v>4.2527956712524219E-3</v>
       </c>
       <c r="N16">
-        <f>ABS(K16-G11)</f>
-        <v>7.3804909079416031E-2</v>
-      </c>
-      <c r="P16" t="s">
+        <f>ABS(K16-F14)</f>
+        <v>1.5526201520708938E-2</v>
+      </c>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q16">
-        <v>-388.887529631966</v>
-      </c>
-      <c r="R16" s="1">
-        <f>(Q16-27*K$5-81*K$7)/108</f>
-        <v>-5.021309844413014E-2</v>
-      </c>
-      <c r="S16" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16">
-        <f>ABS(R16-G16)</f>
-        <v>8.3920214055869802E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="C17" s="12">
         <v>-78.097783000000007</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="12">
         <f>C17/16</f>
         <v>-4.8811114375000004</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <v>213.69</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
         <v>5.9785344074144984</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="13">
         <f>(C17-4*D$3-12*D$5)/16</f>
         <v>-3.6073000000000466E-2</v>
       </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
       <c r="J17">
-        <v>1053.2684558021001</v>
+        <v>-531.98848143849602</v>
       </c>
       <c r="K17" s="1">
-        <f>(J17^(1/3))/3</f>
-        <v>3.3914996079501782</v>
+        <f>(J17-96*K4-32*K6)/128</f>
+        <v>-0.21242203063590115</v>
       </c>
       <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <f>ABS(K17-G15)/G15</f>
+        <v>-4.31115069422838E-2</v>
+      </c>
+      <c r="N17">
+        <f>ABS(K17-G15)</f>
+        <v>8.7793431359015628E-3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="J18">
+        <v>1485.75691194858</v>
+      </c>
+      <c r="K18" s="1">
+        <f>(J18^(1/3))/2</f>
+        <v>5.705397718493562</v>
+      </c>
+      <c r="L18" t="s">
         <v>1</v>
       </c>
-      <c r="M17">
-        <f>ABS(K17-F11)/F11</f>
-        <v>3.1113088567431231E-2</v>
-      </c>
-      <c r="N17">
-        <f>ABS(K17-F11)</f>
-        <v>0.10890850772516192</v>
-      </c>
-      <c r="Q17">
-        <v>1601.6130000000001</v>
-      </c>
-      <c r="R17" s="1">
-        <f>(Q17^(1/3))/3</f>
-        <v>3.9</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M18">
+        <f>ABS(K18-F15)/F15</f>
+        <v>4.9586554618334944E-3</v>
+      </c>
+      <c r="N18">
+        <f>ABS(K18-F15)</f>
+        <v>2.8432086479654117E-2</v>
+      </c>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="10">
+        <v>-10.549776</v>
+      </c>
+      <c r="D19" s="10">
+        <f>C19/2</f>
+        <v>-5.2748879999999998</v>
+      </c>
+      <c r="E19" s="6">
+        <v>24.25</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19" si="1">E19^(1/3)</f>
+        <v>2.8944801860312017</v>
+      </c>
+      <c r="G19" s="7">
+        <f>(C19-D$4-D$5)/2</f>
+        <v>-0.67580162499999985</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10">
+        <v>-21.887675000000002</v>
+      </c>
+      <c r="D20" s="10">
+        <f>C20/4</f>
+        <v>-5.4719187500000004</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45.15</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" ref="F20" si="2">E20^(1/3)</f>
+        <v>3.5608410250492901</v>
+      </c>
+      <c r="G20" s="7">
+        <f>(C20-D$4*3- D$5)/4</f>
+        <v>-0.42855806250000061</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20">
+        <v>-570.98775814209102</v>
+      </c>
+      <c r="K20" s="1">
+        <f>(J20-64*K5-64*K6)/128</f>
+        <v>-0.56520122679055862</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <f>ABS(K20-G19)/G19</f>
+        <v>-0.16365808266507387</v>
+      </c>
+      <c r="N20">
+        <f>ABS(K20-G19)</f>
+        <v>0.11060039820944123</v>
+      </c>
+      <c r="P20" t="s">
+        <v>58</v>
+      </c>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="J21">
+        <v>1547.0343103151799</v>
+      </c>
+      <c r="K21" s="1">
+        <f>(J21^(1/3))/4</f>
+        <v>2.8913898838807564</v>
+      </c>
+      <c r="L21" t="s">
         <v>1</v>
       </c>
-      <c r="U17">
-        <f>ABS(R17-F16)</f>
-        <v>0.10420594624682744</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18">
-        <v>-551.26710414698402</v>
-      </c>
-      <c r="K18" s="1">
-        <f>(J18-96*K$6-32*K$5)/128</f>
-        <v>6.1323109962798661E-2</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="M21">
+        <f>ABS(K21-F19)/F19</f>
+        <v>1.067653586077115E-3</v>
+      </c>
+      <c r="N21">
+        <f>ABS(K21-F19)</f>
+        <v>3.0903021504453676E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22">
+        <v>-493.49694270227502</v>
+      </c>
+      <c r="K22" s="1">
+        <f>(J22-81*K5-27*K6)/108</f>
+        <v>-0.42947695639158368</v>
+      </c>
+      <c r="L22" t="s">
         <v>7</v>
       </c>
-      <c r="M18">
-        <f>ABS(K18-G12)/G12</f>
-        <v>1.1894415310603068</v>
-      </c>
-      <c r="N18">
-        <f>ABS(K18-G12)</f>
-        <v>3.3314547462798494E-2</v>
-      </c>
-      <c r="P18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18">
-        <v>-466.68490865285497</v>
-      </c>
-      <c r="R18" s="1">
-        <f>(Q18-32*K$5-96*K$7)/128</f>
-        <v>-9.5378487739318452E-2</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M22">
+        <f>ABS(K22-G20)/G20</f>
+        <v>-2.1441526177869074E-3</v>
+      </c>
+      <c r="N22">
+        <f>ABS(K22-G20)</f>
+        <v>9.1889389158306134E-4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="U18">
-        <f>ABS(R18-G17)</f>
-        <v>5.9305487739317986E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="J23">
+        <v>1262.1695615758999</v>
+      </c>
+      <c r="K23" s="1">
+        <f>(J23^(1/3))/3</f>
+        <v>3.6023395491925236</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f>ABS(K23-F20)/F20</f>
+        <v>1.1654135596423905E-2</v>
+      </c>
+      <c r="N23">
+        <f>ABS(K23-F20)</f>
+        <v>4.1498524143233517E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.2433955999999999</v>
+      </c>
+      <c r="D24" s="5">
+        <f>(C24-D$3-D$4)/2</f>
+        <v>7.4897855500000006</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>2.4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-8.5854257999999994</v>
+      </c>
+      <c r="D25" s="1">
+        <f>(C25-D$3-D$4)/2</f>
+        <v>2.5753748500000007</v>
+      </c>
+      <c r="J25">
+        <v>-421.72579837706201</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>2.6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-12.307267</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:D28" si="3">(C26-D$3-D$4)/2</f>
+        <v>0.71445425000000062</v>
+      </c>
+      <c r="J26">
+        <v>-421.72579837704802</v>
+      </c>
+      <c r="K26" s="1">
+        <f>J26-81*K4-26*K5</f>
+        <v>26.197908775194065</v>
+      </c>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-13.318339</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20891825000000042</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>3.2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-12.468114</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63403075000000042</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="J19">
-        <v>1366.22606217869</v>
-      </c>
-      <c r="K19" s="1">
-        <f>(J19^(1/3))/2</f>
-        <v>5.5480988837709342</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f>ABS(K19-F12)/F12</f>
-        <v>1.5917464494705207E-2</v>
-      </c>
-      <c r="N19">
-        <f>ABS(K19-F12)</f>
-        <v>8.974010188097914E-2</v>
-      </c>
-      <c r="Q19">
-        <v>1833.5532921475201</v>
-      </c>
-      <c r="R19" s="1">
-        <f>(Q19^(1/3))/2</f>
-        <v>6.1197617767784998</v>
-      </c>
-      <c r="S19" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <f>ABS(R19-F17)</f>
-        <v>0.14122736936400138</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1.2433955999999999</v>
-      </c>
-      <c r="D20" s="5">
-        <f>(C20-D$3-D$4)/2</f>
-        <v>7.4897855500000006</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20">
-        <v>-197.29561650236499</v>
-      </c>
-      <c r="K20" s="1">
-        <f>(J20-27*K5-27*K6)/54</f>
-        <v>0.63257219440064805</v>
-      </c>
-      <c r="M20">
-        <f>ABS(K20-D36)/D36</f>
-        <v>0.65715114318678569</v>
-      </c>
-      <c r="N20">
-        <f>ABS(K20-D36)</f>
-        <v>1.2124746296734261</v>
-      </c>
-      <c r="P20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20">
-        <v>-187.78169833857899</v>
-      </c>
-      <c r="R20" s="1">
-        <f>(Q20-27*K5-27*K7)/54</f>
-        <v>0.2637558641003887</v>
-      </c>
-      <c r="U20">
-        <f>ABS(R20-D39)</f>
-        <v>0.2449290016403522</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21">
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>2.4</v>
       </c>
-      <c r="C21" s="2">
-        <v>-8.5854257999999994</v>
-      </c>
-      <c r="D21" s="1">
-        <f>(C21-D$3-D$4)/2</f>
-        <v>2.5753748500000007</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22">
+      <c r="C31" s="2">
+        <v>-6.9020165999999996</v>
+      </c>
+      <c r="D31" s="1">
+        <f>(C31-D$3-D$5)/2</f>
+        <v>2.5285308250000007</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>2.6</v>
       </c>
-      <c r="C22" s="2">
-        <v>-12.307267</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" ref="D22:D24" si="2">(C22-D$3-D$4)/2</f>
-        <v>0.71445425000000062</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23">
+      <c r="C32" s="2">
+        <v>-11.152163</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32:D34" si="4">(C32-D$3-D$5)/2</f>
+        <v>0.40345762500000037</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>3</v>
       </c>
-      <c r="C23" s="2">
-        <v>-13.318339</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20891825000000042</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1319.4628536518001</v>
-      </c>
-      <c r="K23" s="5">
-        <f>(J23-64*K$5-64*K$6)/128</f>
-        <v>14.59449826637691</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3">
-        <f>ABS(K23-D20)</f>
-        <v>7.104712716376909</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24">
+      <c r="C33" s="2">
+        <v>-12.453782</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.24735187499999989</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>3.2</v>
       </c>
-      <c r="C24" s="2">
-        <v>-12.468114</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.63403075000000042</v>
-      </c>
-      <c r="I24">
-        <v>2.4</v>
-      </c>
-      <c r="J24">
-        <v>-202.34951642917201</v>
-      </c>
-      <c r="K24" s="1">
-        <f>(J24-64*K$5-64*K$6)/128</f>
-        <v>2.7053391251193157</v>
-      </c>
-      <c r="N24">
-        <f>ABS(K24-D21)</f>
-        <v>0.12996427511931508</v>
-      </c>
-      <c r="P24">
-        <v>2.4</v>
-      </c>
-      <c r="Q24">
-        <v>-148.78739549330601</v>
-      </c>
-      <c r="R24" s="1">
-        <f>(Q24-64*K$5-64*K$7)/128</f>
-        <v>2.5787931949307685</v>
-      </c>
-      <c r="U24">
-        <f>ABS(R24-D27)</f>
-        <v>5.0262369930767825E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="I25">
-        <v>2.6</v>
-      </c>
-      <c r="J25">
-        <v>-474.92644189719601</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" ref="K25:K27" si="3">(J25-64*K$5-64*K$6)/128</f>
-        <v>0.57583189490037823</v>
-      </c>
-      <c r="N25">
-        <f>ABS(K25-D22)</f>
-        <v>0.1386223550996224</v>
-      </c>
-      <c r="P25">
-        <v>2.6</v>
-      </c>
-      <c r="Q25">
-        <v>-426.38186140861097</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" ref="R25:R27" si="4">(Q25-64*K$5-64*K$7)/128</f>
-        <v>0.41008642996744871</v>
-      </c>
-      <c r="U25">
-        <f>ABS(R25-D28)</f>
-        <v>6.6288049674483318E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C34" s="2">
+        <v>-11.769543000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="4"/>
+        <v>9.4767625000000022E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>-506.80632198354903</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="3"/>
-        <v>0.32677033172574532</v>
-      </c>
-      <c r="N26">
-        <f>ABS(K26-D23)</f>
-        <v>0.11785208172574491</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26">
-        <v>-511.56217617612498</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.25538477915375446</v>
-      </c>
-      <c r="U26">
-        <f>ABS(R26-D29)</f>
-        <v>8.032904153754572E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>2.4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>-6.9020165999999996</v>
-      </c>
-      <c r="D27" s="1">
-        <f>(C27-D$3-D$5)/2</f>
-        <v>2.5285308250000007</v>
-      </c>
-      <c r="I27">
-        <v>3.2</v>
-      </c>
-      <c r="J27">
-        <v>-453.01526045028697</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="3"/>
-        <v>0.74701299995435511</v>
-      </c>
-      <c r="N27">
-        <f>ABS(K27-D24)</f>
-        <v>0.11298224995435469</v>
-      </c>
-      <c r="P27">
-        <v>3.2</v>
-      </c>
-      <c r="Q27">
-        <v>-479.21008028871199</v>
-      </c>
-      <c r="R27" s="1">
-        <f t="shared" si="4"/>
-        <v>-2.6340300333405064E-3</v>
-      </c>
-      <c r="U27">
-        <f>ABS(R27-D30)</f>
-        <v>9.7401655033340528E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>2.6</v>
-      </c>
-      <c r="C28" s="2">
-        <v>-11.152163</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" ref="D28:D30" si="5">(C28-D$3-D$5)/2</f>
-        <v>0.40345762500000037</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-12.453782</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.24735187499999989</v>
-      </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>3.2</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-11.769543000000001</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="5"/>
-        <v>9.4767625000000022E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>-329.61291</v>
+      </c>
+      <c r="D37">
+        <f>(C37-18*D3-18*D4-18*D5)/54</f>
+        <v>-0.28837169444444433</v>
+      </c>
+      <c r="F37">
+        <v>-1823.5788863038799</v>
+      </c>
+      <c r="G37">
+        <f>(F37-144*K4-144*K5-144*K6)/432</f>
+        <v>-0.24994162389148164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D39" t="s">
         <v>7</v>
       </c>
-      <c r="F32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="2">
-        <v>-329.61291</v>
-      </c>
-      <c r="D33">
-        <f>(C33-18*D3-18*D4-18*D5)/54</f>
-        <v>-0.28837169444444433</v>
-      </c>
-      <c r="F33">
-        <v>-1823.5788863038799</v>
-      </c>
-      <c r="G33">
-        <f>(F33-144*K5-144*K6-144*K7)/432</f>
-        <v>-0.24378427385157422</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <v>-271.24421000000001</v>
+      </c>
+      <c r="D40" s="1">
+        <f>(C40-27*D3-27*D4)/54</f>
+        <v>1.8450468240740743</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="2">
-        <v>-271.24421000000001</v>
-      </c>
-      <c r="D36" s="1">
-        <f>(C36-27*D3-27*D4)/54</f>
-        <v>1.8450468240740743</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
         <v>-295.42613</v>
       </c>
-      <c r="D39" s="1">
-        <f>(C39-27*D3-27*D5)/54</f>
+      <c r="D43" s="1">
+        <f>(C43-27*D3-27*D5)/54</f>
         <v>0.5086848657407409</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3533,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF32FC20-C67B-5347-85D8-3691B7232B5F}">
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -3541,15 +3268,15 @@
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3558,16 +3285,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -3576,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
         <v>9</v>
@@ -3585,16 +3312,16 @@
         <v>11</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
         <v>10</v>
@@ -3605,7 +3332,7 @@
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>-1028.19</v>
@@ -3634,7 +3361,7 @@
         <v>2.85406</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O3">
         <v>-1019.31</v>
@@ -3665,7 +3392,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>-1136.01</v>
@@ -3694,7 +3421,7 @@
         <v>3.5218666666666665</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O4">
         <v>-1134.52</v>
@@ -3725,7 +3452,7 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>-857.01499999999999</v>
@@ -3754,7 +3481,7 @@
         <v>4.0536249999999994</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O5">
         <v>-856.351</v>
@@ -3785,7 +3512,7 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3794,16 +3521,16 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -3878,7 +3605,7 @@
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
@@ -3898,42 +3625,42 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>

--- a/davis_work/fenial_ncsu.xlsx
+++ b/davis_work/fenial_ncsu.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/davis_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F84C3-4F8D-6B46-B661-9B4BEF07E1D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A111A-DD14-7C46-87D2-CCC744E92F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="1620" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
+    <workbookView xWindow="1200" yWindow="2280" windowWidth="29060" windowHeight="16440" xr2:uid="{9337B59B-94E8-6A43-AF9A-2652C7F43BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="VASP" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>B2-FeNi</t>
   </si>
@@ -342,7 +353,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>VASP!$B$25:$B$28</c:f>
+              <c:f>VASP!$B$26:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -363,7 +374,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VASP!$D$25:$D$28</c:f>
+              <c:f>VASP!$D$26:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -597,7 +608,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>VASP!$B$25:$B$28</c:f>
+              <c:f>VASP!$B$26:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -618,7 +629,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VASP!$D$31:$D$34</c:f>
+              <c:f>VASP!$D$32:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2343,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3736C-373F-3241-97CC-64F85E1DAEE3}">
-  <dimension ref="B2:R43"/>
+  <dimension ref="B2:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2358,6 +2369,9 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
@@ -2373,6 +2387,9 @@
         <f>C3/2</f>
         <v>-8.2485405000000007</v>
       </c>
+      <c r="E3">
+        <v>2.8300481080000002</v>
+      </c>
       <c r="J3" t="s">
         <v>9</v>
       </c>
@@ -2380,6 +2397,9 @@
         <v>10</v>
       </c>
       <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2394,18 +2414,25 @@
         <f>C4/4</f>
         <v>-5.487635</v>
       </c>
+      <c r="E4">
+        <v>3.518021294</v>
+      </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
       <c r="J4">
-        <v>-222.62235085452599</v>
+        <v>-1782.4268999999999</v>
       </c>
       <c r="K4" s="1">
-        <f>J4/54</f>
-        <v>-4.1226361269356664</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2.8551735723373146</v>
+        <f>J4/432</f>
+        <v>-4.1259881944444441</v>
+      </c>
+      <c r="L4">
+        <v>17.116565000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <f>L4/6</f>
+        <v>2.8527608333333334</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -2419,18 +2446,25 @@
         <f>C5/4</f>
         <v>-3.7105377499999999</v>
       </c>
+      <c r="E5">
+        <v>4.0393081559999997</v>
+      </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5">
-        <v>-473.497674384959</v>
+        <v>-3845.3388</v>
       </c>
       <c r="K5" s="1">
-        <f>J5/108</f>
-        <v>-4.3842377257866572</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4.0437945289373216</v>
+        <f>J5/864</f>
+        <v>-4.4506236111111113</v>
+      </c>
+      <c r="L5">
+        <v>21.115145999999999</v>
+      </c>
+      <c r="M5" s="1">
+        <f>L5/6</f>
+        <v>3.5191909999999997</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -2438,14 +2472,18 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>-367.96070249305899</v>
+        <v>-2903.5234</v>
       </c>
       <c r="K6" s="1">
-        <f>J6/108</f>
-        <v>-3.4070435416023979</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3.5173563759333217</v>
+        <f>J6/864</f>
+        <v>-3.3605594907407408</v>
+      </c>
+      <c r="L6">
+        <v>24.296468000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <f>L6/6</f>
+        <v>4.0494113333333335</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -2480,7 +2518,7 @@
         <v>23.2</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" ref="F8:F17" si="0">E8^(1/3)</f>
+        <f t="shared" ref="F8:F18" si="0">E8^(1/3)</f>
         <v>2.8520862942848173</v>
       </c>
       <c r="G8" s="13">
@@ -2549,27 +2587,33 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>-442.10468100461702</v>
+        <v>-447.02850987088101</v>
       </c>
       <c r="K10" s="1">
         <f>(J10-81*K4-27*K5)/108</f>
-        <v>9.4474665494553037E-2</v>
+        <v>6.7994179436286564E-2</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
       <c r="M10">
         <f>ABS(K10-G9)/G9</f>
-        <v>0.16073341814521322</v>
+        <v>0.39597306576541019</v>
       </c>
       <c r="N10">
         <f>ABS(K10-G9)</f>
-        <v>1.8093459505447759E-2</v>
+        <v>4.4573945563714232E-2</v>
       </c>
       <c r="P10" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="1"/>
+      <c r="Q10">
+        <v>-585.42501856094805</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(Q10-64*K4-64*K5)/128</f>
+        <v>-0.28532705472962894</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -2594,24 +2638,30 @@
         <v>-3.2428874999999913E-2</v>
       </c>
       <c r="J11">
-        <v>1233.3788461301799</v>
+        <v>1237.7951</v>
       </c>
       <c r="K11" s="1">
         <f>(J11^(1/3))/3</f>
-        <v>3.5747382208061791</v>
+        <v>3.5789997247810423</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
       </c>
       <c r="M11">
         <f>ABS(K11-F9)/F9</f>
-        <v>1.5583293905663639E-2</v>
+        <v>1.6793987382068089E-2</v>
       </c>
       <c r="N11">
         <f>ABS(K11-F9)</f>
-        <v>5.4851430370029597E-2</v>
-      </c>
-      <c r="R11" s="1"/>
+        <v>5.9112934344892842E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1341.3765722084599</v>
+      </c>
+      <c r="R11" s="1">
+        <f>(Q11^(1/3))/4</f>
+        <v>2.7571279083293656</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -2639,22 +2689,22 @@
         <v>21</v>
       </c>
       <c r="J12">
-        <v>-529.27387405690399</v>
+        <v>-545.61140999999998</v>
       </c>
       <c r="K12" s="1">
         <f>(J12-96*K5-32*K6)/128</f>
-        <v>4.9870386710296755E-3</v>
+        <v>-8.4481559606481405E-2</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
       </c>
       <c r="M12">
         <f>ABS(K12-G10)/G10</f>
-        <v>0.85816057648221122</v>
+        <v>3.4027918175322549</v>
       </c>
       <c r="N12">
         <f>ABS(K12-G10)</f>
-        <v>3.0172711328971036E-2</v>
+        <v>0.11964130960648212</v>
       </c>
       <c r="P12" t="s">
         <v>46</v>
@@ -2662,141 +2712,130 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="J13">
+        <v>1448.5805</v>
+      </c>
+      <c r="K13" s="1">
+        <f>(J13^(1/3))/2</f>
+        <v>5.6574086380364186</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f>ABS(K13-F10)/F10</f>
+        <v>1.0485427178489815E-2</v>
+      </c>
+      <c r="N13">
+        <f>ABS(K13-F10)</f>
+        <v>5.9948936501201366E-2</v>
+      </c>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="12">
         <v>-12.642923</v>
       </c>
-      <c r="D13" s="12">
-        <f>C13/2</f>
+      <c r="D14" s="12">
+        <f>C14/2</f>
         <v>-6.3214614999999998</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>23.8</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>2.8764642824468321</v>
       </c>
-      <c r="G13" s="13">
-        <f>(C13-D$3-D$5)/2</f>
+      <c r="G14" s="13">
+        <f>(C14-D$3-D$5)/2</f>
         <v>-0.34192237499999956</v>
       </c>
-      <c r="J13">
-        <v>1426.9125842842</v>
-      </c>
-      <c r="K13" s="1">
-        <f>(J13^(1/3))/2</f>
-        <v>5.6290589098378518</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <f>ABS(K13-F10)/F10</f>
-        <v>1.5443964025095821E-2</v>
-      </c>
-      <c r="N13">
-        <f>ABS(K13-F10)</f>
-        <v>8.8298664699768104E-2</v>
-      </c>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="K14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C15" s="10">
         <v>-29.273737000000001</v>
       </c>
-      <c r="D14" s="10">
-        <f>C14/4</f>
+      <c r="D15" s="10">
+        <f>C15/4</f>
         <v>-7.3184342500000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>48.66</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>3.6508223580223329</v>
       </c>
-      <c r="G14" s="7">
-        <f>(C14-3*D$3-D$5)/4</f>
+      <c r="G15" s="7">
+        <f>(C15-3*D$3-D$5)/4</f>
         <v>-0.20439443749999964</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>-444.69284173460301</v>
+      </c>
+      <c r="K15" s="1">
+        <f>(J15-81*K4-27*K6)/108</f>
+        <v>-0.18289529383891712</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <f>ABS(K15-G15)/G15</f>
+        <v>-0.10518458292722647</v>
+      </c>
+      <c r="N15">
+        <f>ABS(K15-G15)</f>
+        <v>2.149914366108252E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <v>-518.74049707942299</v>
+      </c>
+      <c r="R15" s="1">
+        <f>(Q15-64*K4-64*K6)/128</f>
+        <v>-0.3093862908403997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C16" s="10">
         <v>-117.08292</v>
       </c>
-      <c r="D15" s="10">
-        <f>C15/16</f>
+      <c r="D16" s="10">
+        <f>C16/16</f>
         <v>-7.3176825000000001</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>188.51</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>5.7338298049732161</v>
       </c>
-      <c r="G15" s="7">
-        <f>(C15-12*D$3-4*D$5)/16</f>
+      <c r="G16" s="7">
+        <f>(C16-12*D$3-4*D$5)/16</f>
         <v>-0.20364268749999959</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15">
-        <v>-444.69284173460301</v>
-      </c>
-      <c r="K15" s="1">
-        <f>(J15-81*K4-27*K6)/108</f>
-        <v>-0.17378833175508573</v>
-      </c>
-      <c r="L15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15">
-        <f>ABS(K15-G14)/G14</f>
-        <v>-0.14974040448098769</v>
-      </c>
-      <c r="N15">
-        <f>ABS(K15-G14)</f>
-        <v>3.0606105744913903E-2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="12">
-        <v>-19.916687</v>
-      </c>
-      <c r="D16" s="12">
-        <f>C16/4</f>
-        <v>-4.9791717499999999</v>
-      </c>
-      <c r="E16" s="11">
-        <v>54.69</v>
-      </c>
-      <c r="F16" s="13">
-        <f t="shared" si="0"/>
-        <v>3.7957940537531725</v>
-      </c>
-      <c r="G16" s="13">
-        <f>(C16-D$3-3*D$5)/4</f>
-        <v>-0.13413331249999993</v>
       </c>
       <c r="J16">
         <v>1330.6536113955699</v>
@@ -2809,57 +2848,63 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <f>ABS(K16-F14)/F14</f>
+        <f>ABS(K16-F15)/F15</f>
         <v>4.2527956712524219E-3</v>
       </c>
       <c r="N16">
-        <f>ABS(K16-F14)</f>
+        <f>ABS(K16-F15)</f>
         <v>1.5526201520708938E-2</v>
       </c>
-      <c r="R16" s="1"/>
+      <c r="Q16">
+        <v>1463.60017196227</v>
+      </c>
+      <c r="R16" s="1">
+        <f>(Q16^(1/3))/4</f>
+        <v>2.8384472388233615</v>
+      </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="12">
-        <v>-78.097783000000007</v>
+        <v>-19.916687</v>
       </c>
       <c r="D17" s="12">
-        <f>C17/16</f>
-        <v>-4.8811114375000004</v>
+        <f>C17/4</f>
+        <v>-4.9791717499999999</v>
       </c>
       <c r="E17" s="11">
-        <v>213.69</v>
+        <v>54.69</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>5.9785344074144984</v>
+        <v>3.7957940537531725</v>
       </c>
       <c r="G17" s="13">
-        <f>(C17-4*D$3-12*D$5)/16</f>
-        <v>-3.6073000000000466E-2</v>
+        <f>(C17-D$3-3*D$5)/4</f>
+        <v>-0.13413331249999993</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
       </c>
       <c r="J17">
-        <v>-531.98848143849602</v>
+        <v>-529.32285000000002</v>
       </c>
       <c r="K17" s="1">
         <f>(J17-96*K4-32*K6)/128</f>
-        <v>-0.21242203063590115</v>
+        <v>-0.20070374710648187</v>
       </c>
       <c r="L17" t="s">
         <v>7</v>
       </c>
       <c r="M17">
-        <f>ABS(K17-G15)/G15</f>
-        <v>-4.31115069422838E-2</v>
+        <f>ABS(K17-G16)/G16</f>
+        <v>-1.4431848398768187E-2</v>
       </c>
       <c r="N17">
-        <f>ABS(K17-G15)</f>
-        <v>8.7793431359015628E-3</v>
+        <f>ABS(K17-G16)</f>
+        <v>2.9389403935177194E-3</v>
       </c>
       <c r="P17" t="s">
         <v>48</v>
@@ -2867,99 +2912,99 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-78.097783000000007</v>
+      </c>
+      <c r="D18" s="12">
+        <f>C18/16</f>
+        <v>-4.8811114375000004</v>
+      </c>
+      <c r="E18" s="11">
+        <v>213.69</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>5.9785344074144984</v>
+      </c>
+      <c r="G18" s="13">
+        <f>(C18-4*D$3-12*D$5)/16</f>
+        <v>-3.6073000000000466E-2</v>
+      </c>
       <c r="J18">
-        <v>1485.75691194858</v>
+        <v>1434.25962830612</v>
       </c>
       <c r="K18" s="1">
         <f>(J18^(1/3))/2</f>
-        <v>5.705397718493562</v>
+        <v>5.6387035475820326</v>
       </c>
       <c r="L18" t="s">
         <v>1</v>
       </c>
       <c r="M18">
-        <f>ABS(K18-F15)/F15</f>
-        <v>4.9586554618334944E-3</v>
+        <f>ABS(K18-F16)/F16</f>
+        <v>1.659035245669066E-2</v>
       </c>
       <c r="N18">
-        <f>ABS(K18-F15)</f>
-        <v>2.8432086479654117E-2</v>
+        <f>ABS(K18-F16)</f>
+        <v>9.5126257391183522E-2</v>
       </c>
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="10">
-        <v>-10.549776</v>
-      </c>
-      <c r="D19" s="10">
-        <f>C19/2</f>
-        <v>-5.2748879999999998</v>
-      </c>
-      <c r="E19" s="6">
-        <v>24.25</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" ref="F19" si="1">E19^(1/3)</f>
-        <v>2.8944801860312017</v>
-      </c>
-      <c r="G19" s="7">
-        <f>(C19-D$4-D$5)/2</f>
-        <v>-0.67580162499999985</v>
-      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="K19" s="1"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="10">
-        <v>-21.887675000000002</v>
+        <v>-10.549776</v>
       </c>
       <c r="D20" s="10">
-        <f>C20/4</f>
-        <v>-5.4719187500000004</v>
+        <f>C20/2</f>
+        <v>-5.2748879999999998</v>
       </c>
       <c r="E20" s="6">
-        <v>45.15</v>
+        <v>24.25</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ref="F20" si="2">E20^(1/3)</f>
-        <v>3.5608410250492901</v>
+        <f t="shared" ref="F20" si="1">E20^(1/3)</f>
+        <v>2.8944801860312017</v>
       </c>
       <c r="G20" s="7">
-        <f>(C20-D$4*3- D$5)/4</f>
-        <v>-0.42855806250000061</v>
+        <f>(C20-D$4-D$5)/2</f>
+        <v>-0.67580162499999985</v>
       </c>
       <c r="I20" t="s">
         <v>54</v>
       </c>
       <c r="J20">
-        <v>-570.98775814209102</v>
+        <v>-577.48874000000001</v>
       </c>
       <c r="K20" s="1">
         <f>(J20-64*K5-64*K6)/128</f>
-        <v>-0.56520122679055862</v>
+        <v>-0.60603923032407403</v>
       </c>
       <c r="L20" t="s">
         <v>7</v>
       </c>
       <c r="M20">
-        <f>ABS(K20-G19)/G19</f>
-        <v>-0.16365808266507387</v>
+        <f>ABS(K20-G20)/G20</f>
+        <v>-0.10322910169966791</v>
       </c>
       <c r="N20">
-        <f>ABS(K20-G19)</f>
-        <v>0.11060039820944123</v>
+        <f>ABS(K20-G20)</f>
+        <v>6.9762394675925821E-2</v>
       </c>
       <c r="P20" t="s">
         <v>58</v>
@@ -2967,288 +3012,300 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-21.887675000000002</v>
+      </c>
+      <c r="D21" s="10">
+        <f>C21/4</f>
+        <v>-5.4719187500000004</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45.15</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" ref="F21" si="2">E21^(1/3)</f>
+        <v>3.5608410250492901</v>
+      </c>
+      <c r="G21" s="7">
+        <f>(C21-D$4*3- D$5)/4</f>
+        <v>-0.42855806250000061</v>
+      </c>
       <c r="J21">
-        <v>1547.0343103151799</v>
+        <v>1452.6567</v>
       </c>
       <c r="K21" s="1">
         <f>(J21^(1/3))/4</f>
-        <v>2.8913898838807564</v>
+        <v>2.8313550901740414</v>
       </c>
       <c r="L21" t="s">
         <v>1</v>
       </c>
       <c r="M21">
-        <f>ABS(K21-F19)/F19</f>
-        <v>1.067653586077115E-3</v>
+        <f>ABS(K21-F20)/F20</f>
+        <v>2.1808784928569497E-2</v>
       </c>
       <c r="N21">
-        <f>ABS(K21-F19)</f>
-        <v>3.0903021504453676E-3</v>
+        <f>ABS(K21-F20)</f>
+        <v>6.3125095857160307E-2</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="I22" t="s">
         <v>55</v>
       </c>
       <c r="J22">
-        <v>-493.49694270227502</v>
+        <v>-500.27785</v>
       </c>
       <c r="K22" s="1">
         <f>(J22-81*K5-27*K6)/108</f>
-        <v>-0.42947695639158368</v>
+        <v>-0.45409473379629617</v>
       </c>
       <c r="L22" t="s">
         <v>7</v>
       </c>
       <c r="M22">
-        <f>ABS(K22-G20)/G20</f>
-        <v>-2.1441526177869074E-3</v>
+        <f>ABS(K22-G21)/G21</f>
+        <v>-5.9587424740831979E-2</v>
       </c>
       <c r="N22">
-        <f>ABS(K22-G20)</f>
-        <v>9.1889389158306134E-4</v>
+        <f>ABS(K22-G21)</f>
+        <v>2.5536671296295554E-2</v>
       </c>
       <c r="P22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="J23">
-        <v>1262.1695615758999</v>
+        <v>1190.0833</v>
       </c>
       <c r="K23" s="1">
         <f>(J23^(1/3))/3</f>
-        <v>3.6023395491925236</v>
+        <v>3.532410759487576</v>
       </c>
       <c r="L23" t="s">
         <v>1</v>
       </c>
       <c r="M23">
-        <f>ABS(K23-F20)/F20</f>
-        <v>1.1654135596423905E-2</v>
+        <f>ABS(K23-F21)/F21</f>
+        <v>7.9841434542337053E-3</v>
       </c>
       <c r="N23">
-        <f>ABS(K23-F20)</f>
-        <v>4.1498524143233517E-2</v>
+        <f>ABS(K23-F21)</f>
+        <v>2.843026556171413E-2</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <v>1.2433955999999999</v>
       </c>
-      <c r="D24" s="5">
-        <f>(C24-D$3-D$4)/2</f>
+      <c r="D25" s="5">
+        <f>(C25-D$3-D$4)/2</f>
         <v>7.4897855500000006</v>
-      </c>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>2.4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>-8.5854257999999994</v>
-      </c>
-      <c r="D25" s="1">
-        <f>(C25-D$3-D$4)/2</f>
-        <v>2.5753748500000007</v>
-      </c>
-      <c r="J25">
-        <v>-421.72579837706201</v>
       </c>
       <c r="K25" s="1"/>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="C26" s="2">
-        <v>-12.307267</v>
+        <v>-8.5854257999999994</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D28" si="3">(C26-D$3-D$4)/2</f>
-        <v>0.71445425000000062</v>
-      </c>
-      <c r="J26">
-        <v>-421.72579837704802</v>
-      </c>
-      <c r="K26" s="1">
-        <f>J26-81*K4-26*K5</f>
-        <v>26.197908775194065</v>
-      </c>
+        <f>(C26-D$3-D$4)/2</f>
+        <v>2.5753748500000007</v>
+      </c>
+      <c r="K26" s="1"/>
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27">
+        <v>2.6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-12.307267</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27:D29" si="3">(C27-D$3-D$4)/2</f>
+        <v>0.71445425000000062</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>-13.318339</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <f t="shared" si="3"/>
         <v>0.20891825000000042</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28">
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>3.2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>-12.468114</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <f t="shared" si="3"/>
         <v>0.63403075000000042</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>2.4</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-6.9020165999999996</v>
-      </c>
-      <c r="D31" s="1">
-        <f>(C31-D$3-D$5)/2</f>
-        <v>2.5285308250000007</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="C32" s="2">
-        <v>-11.152163</v>
+        <v>-6.9020165999999996</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:D34" si="4">(C32-D$3-D$5)/2</f>
-        <v>0.40345762500000037</v>
+        <f>(C32-D$3-D$5)/2</f>
+        <v>2.5285308250000007</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33">
+        <v>2.6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-11.152163</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33:D35" si="4">(C33-D$3-D$5)/2</f>
+        <v>0.40345762500000037</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>-12.453782</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <f t="shared" si="4"/>
         <v>-0.24735187499999989</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>3.2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>-11.769543000000001</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <f t="shared" si="4"/>
         <v>9.4767625000000022E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>7</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
         <v>-329.61291</v>
       </c>
-      <c r="D37">
-        <f>(C37-18*D3-18*D4-18*D5)/54</f>
+      <c r="D38">
+        <f>(C38-18*D3-18*D4-18*D5)/54</f>
         <v>-0.28837169444444433</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>-1823.5788863038799</v>
       </c>
-      <c r="G37">
-        <f>(F37-144*K4-144*K5-144*K6)/432</f>
-        <v>-0.24994162389148164</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="G38">
+        <f>(F38-144*K4-144*K5-144*K6)/432</f>
+        <v>-0.24219032323428991</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
         <v>-271.24421000000001</v>
       </c>
-      <c r="D40" s="1">
-        <f>(C40-27*D3-27*D4)/54</f>
+      <c r="D41" s="1">
+        <f>(C41-27*D3-27*D4)/54</f>
         <v>1.8450468240740743</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>30</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C43" s="2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
         <v>-295.42613</v>
       </c>
-      <c r="D43" s="1">
-        <f>(C43-27*D3-27*D5)/54</f>
+      <c r="D44" s="1">
+        <f>(C44-27*D3-27*D5)/54</f>
         <v>0.5086848657407409</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3261,7 +3318,7 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
